--- a/trunk/ProjectDocuments/Nhom15/PhanCongThanhVienNhom11.xlsx
+++ b/trunk/ProjectDocuments/Nhom15/PhanCongThanhVienNhom11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -90,10 +90,64 @@
     <t>25/4/2010</t>
   </si>
   <si>
-    <t>14/4/2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghi rõ </t>
+    <t>0712461</t>
+  </si>
+  <si>
+    <t>0712462</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Trường</t>
+  </si>
+  <si>
+    <t>0712473</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Trường</t>
+  </si>
+  <si>
+    <t>Lương Nguyễn Trung</t>
+  </si>
+  <si>
+    <t>0712497</t>
+  </si>
+  <si>
+    <t>Võ Nguyễn Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Hiển thị âm thanh, phim</t>
+  </si>
+  <si>
+    <t>rất quan trọng</t>
+  </si>
+  <si>
+    <t>Hà Thanh Tuấn</t>
+  </si>
+  <si>
+    <t>Liên kết textbox, listbox</t>
+  </si>
+  <si>
+    <t>Hiển thị hình ảnh</t>
+  </si>
+  <si>
+    <t>Control từ vựng</t>
+  </si>
+  <si>
+    <t>Control hiển thị văn bản</t>
+  </si>
+  <si>
+    <t>DTO, DAO, BUS</t>
+  </si>
+  <si>
+    <t>quan trọng</t>
+  </si>
+  <si>
+    <t>hoàn chỉnh chức năng luyện tập sau bài đọc</t>
+  </si>
+  <si>
+    <t>Demo reading</t>
+  </si>
+  <si>
+    <t>bình thường</t>
   </si>
 </sst>
 </file>
@@ -223,7 +277,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -240,7 +294,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,6 +310,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -554,19 +609,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I44" sqref="I44:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -580,7 +635,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="17"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -634,7 +689,7 @@
       <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -652,755 +707,878 @@
       <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="20">
-        <v>40455</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="C9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="15"/>
       <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="20">
+      <c r="C10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="19">
         <v>40455</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="G10" s="23">
+        <v>40281</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="15"/>
       <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="20">
+      <c r="C11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="19">
         <v>40455</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="G11" s="23">
+        <v>40281</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="15"/>
       <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="20">
+      <c r="C12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="19">
         <v>40455</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15">
+      <c r="G12" s="23">
+        <v>40281</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="20">
-        <v>40455</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="H15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="C16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15"/>
       <c r="B17" s="15">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="F17" s="20"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="15"/>
       <c r="B18" s="15">
-        <v>2</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="F18" s="20"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15"/>
       <c r="B19" s="15">
-        <v>3</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="F19" s="20"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15">
+      <c r="I19" s="21"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="21" t="s">
+      <c r="G22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15">
-        <v>5</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="D23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="23">
+        <v>40296</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15">
         <v>2</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>6</v>
+      <c r="C24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="23">
+        <v>40297</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="15"/>
       <c r="B25" s="15">
-        <v>1</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="G25" s="23">
+        <v>40298</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="15"/>
       <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="23">
+        <v>40299</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15">
+      <c r="E29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15">
+      <c r="F29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15">
+      <c r="G29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="H29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="23">
+        <v>40303</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15">
         <v>2</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="C31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="23">
+        <v>40304</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15">
         <v>3</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>6</v>
+      <c r="C32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="23">
+        <v>40305</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="15"/>
       <c r="B33" s="15">
+        <v>4</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="23">
+        <v>40306</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75">
+      <c r="A36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15">
+      <c r="D36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15">
+      <c r="E36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15">
+      <c r="F36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="G36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="15"/>
       <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="19">
+        <v>40364</v>
+      </c>
+      <c r="G37" s="23">
+        <v>40310</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15">
+        <v>2</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="19">
+        <v>40364</v>
+      </c>
+      <c r="G38" s="23">
+        <v>40311</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15">
+        <v>3</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="19">
+        <v>40364</v>
+      </c>
+      <c r="G39" s="23">
+        <v>40312</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15">
+        <v>4</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="19">
+        <v>40364</v>
+      </c>
+      <c r="G40" s="23">
+        <v>40313</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75">
+      <c r="A43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15">
-        <v>1</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="20">
-        <v>40364</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15">
-        <v>2</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="20">
-        <v>40364</v>
-      </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15">
-        <v>3</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="20">
-        <v>40364</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="15"/>
       <c r="B44" s="15">
-        <v>4</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="E44" s="15"/>
-      <c r="F44" s="20">
-        <v>40364</v>
+      <c r="F44" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="15"/>
       <c r="B45" s="15">
-        <v>5</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="E45" s="15"/>
-      <c r="F45" s="20">
-        <v>40364</v>
+      <c r="F45" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15">
+        <v>3</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15">
+        <v>4</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="7" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75">
+      <c r="A50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F50" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15">
-        <v>1</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15">
-        <v>2</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="15"/>
       <c r="B51" s="15">
-        <v>3</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="E51" s="15"/>
-      <c r="F51" s="21" t="s">
-        <v>22</v>
+      <c r="F51" s="19">
+        <v>40184</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="I51" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="15"/>
       <c r="B52" s="15">
-        <v>4</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="E52" s="15"/>
-      <c r="F52" s="21" t="s">
-        <v>22</v>
+      <c r="F52" s="19">
+        <v>40184</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="I52" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="15"/>
       <c r="B53" s="15">
-        <v>5</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="E53" s="15"/>
-      <c r="F53" s="21" t="s">
-        <v>22</v>
+      <c r="F53" s="19">
+        <v>40184</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="19" t="s">
+      <c r="I53" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15">
         <v>4</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15">
-        <v>1</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="20">
+      <c r="C54" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="19">
         <v>40184</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15">
-        <v>2</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="20">
-        <v>40184</v>
-      </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15">
-        <v>3</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="20">
-        <v>40184</v>
-      </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15">
-        <v>4</v>
-      </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="20">
-        <v>40184</v>
-      </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15">
-        <v>5</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="20">
-        <v>40184</v>
-      </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
